--- a/Aprovados/ES2N-Requisitos_Funcionais_v6.xlsx
+++ b/Aprovados/ES2N-Requisitos_Funcionais_v6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Desktop\Tarefas da Faculdade\5° Semestre\ES2\SearchBytes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643DCB5F-1988-441A-9849-BCAA39D48E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E954939-F6ED-4F21-863F-0ADDD5D4A871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -120,9 +120,6 @@
     <t>RF07</t>
   </si>
   <si>
-    <t>Gerenciar calendário</t>
-  </si>
-  <si>
     <t>Baixa</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Importar arquivos</t>
   </si>
   <si>
-    <t>RF15</t>
-  </si>
-  <si>
     <t>Permite ao professor importar listas com dados dos alunos do SIGA para a plataforma, facilitando a gestão de turmas.</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
   </si>
   <si>
     <t>Permite a realização de sorteios com base na lista importada dos alunos do SIGA ou dos visitantes que entraram via QR Code.</t>
-  </si>
-  <si>
-    <t>Permite que os professores agendem provas e atividades para entrega no calendário, com foco em sua organização pessoal.</t>
   </si>
   <si>
     <t>Permite ao professor entrar na plataforma através de e-mail ou nome de usuário e senha para acessar as informações vinculadas ao seu usuário.</t>
@@ -640,7 +631,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B10:F25" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B10:F24" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nome" dataDxfId="3"/>
@@ -850,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA1000"/>
+  <dimension ref="B2:AA999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1118,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>14</v>
@@ -1144,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>18</v>
@@ -1176,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>14</v>
@@ -1206,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,42 +1211,42 @@
         <v>30</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>14</v>
@@ -1264,97 +1255,89 @@
     </row>
     <row r="20" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="C22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>48</v>
-      </c>
+      <c r="C23" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="2:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="30"/>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
@@ -1369,6 +1352,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
@@ -1451,11 +1435,11 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1594,12 +1578,12 @@
       <c r="F55" s="16"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
+    <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,12 +2307,8 @@
       <c r="G146" s="5"/>
     </row>
     <row r="147" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
       <c r="D147" s="8"/>
-      <c r="E147" s="5"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="8"/>
@@ -5737,10 +5717,6 @@
     <row r="999" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D999" s="8"/>
       <c r="F999" s="8"/>
-    </row>
-    <row r="1000" spans="4:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1000" s="8"/>
-      <c r="F1000" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
